--- a/unused_models/tests/fixtures/test_model_with_mass_computation.xlsx
+++ b/unused_models/tests/fixtures/test_model_with_mass_computation.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -58,12 +58,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$9</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$6</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$9</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$6</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -692,14 +692,14 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,7 +709,7 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,7 +1146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1163,42 +1163,38 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2" s="5">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="5">
+      <c r="A3" s="33" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C3" s="33" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3" s="5">
-      <c r="A3" s="34" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="34" t="n"/>
-      <c r="C3" s="34" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" s="5">
       <c r="A4" s="34" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="34" t="n"/>
@@ -1209,7 +1205,7 @@
     <row r="5" s="5">
       <c r="A5" s="34" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="34" t="n"/>
@@ -1220,220 +1216,231 @@
     <row r="6" s="5">
       <c r="A6" s="34" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="5">
       <c r="A7" s="34" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="34" t="n"/>
       <c r="C7" s="34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" s="5">
       <c r="A8" s="34" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="34" t="n"/>
       <c r="C8" s="34" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" s="5">
       <c r="A9" s="34" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="34" t="n"/>
       <c r="C9" s="34" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" s="5">
       <c r="A10" s="34" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="34" t="n"/>
       <c r="C10" s="34" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" s="5">
       <c r="A11" s="34" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="34" t="n"/>
       <c r="C11" s="34" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" s="5">
       <c r="A12" s="34" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="34" t="n"/>
       <c r="C12" s="34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" s="5">
       <c r="A13" s="34" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="34" t="n"/>
       <c r="C13" s="34" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" s="5">
       <c r="A14" s="34" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="34" t="n"/>
       <c r="C14" s="34" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" s="5">
       <c r="A15" s="34" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="34" t="n"/>
       <c r="C15" s="34" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" s="5">
       <c r="A16" s="34" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="34" t="n"/>
       <c r="C16" s="34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" s="5">
       <c r="A17" s="34" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="34" t="n"/>
       <c r="C17" s="34" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" s="5">
       <c r="A18" s="34" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="34" t="n"/>
       <c r="C18" s="34" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" s="5">
       <c r="A19" s="34" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="34" t="n"/>
       <c r="C19" s="34" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" s="5">
       <c r="A20" s="34" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="34" t="n"/>
       <c r="C20" s="34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" s="5">
       <c r="A21" s="34" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="34" t="n"/>
       <c r="C21" s="34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" s="5">
       <c r="A22" s="34" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="34" t="n"/>
       <c r="C22" s="34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" s="5">
       <c r="A23" s="34" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="34" t="n"/>
       <c r="C23" s="34" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" s="5">
       <c r="A24" s="34" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="34" t="n"/>
       <c r="C24" s="34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="34" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="34" t="n"/>
       <c r="C25" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="34" t="n"/>
+      <c r="C26" s="34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +1499,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1581,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -1701,7 +1708,7 @@
     <row customHeight="1" ht="13.5" r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -3984,7 +3991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4008,7 +4015,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4218,6 @@
       </c>
       <c r="M7" s="10" t="n"/>
     </row>
-    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -4224,7 +4230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:AMN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4242,7 +4248,7 @@
     <row customHeight="1" ht="15.1" r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5394,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5510,7 +5516,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5729,7 +5735,7 @@
     <row customFormat="1" r="1" s="21">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6018,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFC3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -6093,7 +6099,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6276,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6443,7 @@
     <row customHeight="1" ht="15.1" r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6527,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6659,7 +6665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -6679,7 +6685,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6812,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6907,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7026,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7123,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AMK4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -7214,7 +7220,7 @@
     <row customFormat="1" customHeight="1" ht="15" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
@@ -7331,7 +7337,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9692,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9998,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10329,7 @@
     <row r="1" s="5">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
